--- a/docs/Dokumentation/fov.xlsx
+++ b/docs/Dokumentation/fov.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5172"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8592"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -312,7 +312,7 @@
                   <c:v>69.234319999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>71.165980000000005</c:v>
+                  <c:v>70.165980000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>71.119709999999998</c:v>
@@ -1574,7 +1574,7 @@
   <dimension ref="A2:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D2" sqref="D2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,14 +1583,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
@@ -1748,7 +1748,7 @@
         <v>0.3</v>
       </c>
       <c r="B17">
-        <v>71.165980000000005</v>
+        <v>70.165980000000005</v>
       </c>
       <c r="C17">
         <v>82.90034</v>
@@ -1837,6 +1837,7 @@
     <mergeCell ref="A2:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>